--- a/4参数.xlsx
+++ b/4参数.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F86184F0-3C9B-4413-81E5-5C826CE8D385}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9CAA44A2-1C37-4BEA-916B-4FAFD2CCF3E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>72157.648</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,6 +67,46 @@
   </si>
   <si>
     <t>72328.362</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -401,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +462,20 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -436,8 +488,20 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -449,6 +513,18 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
